--- a/MigrationTool/MigrationTool/Files/Storage.xlsx
+++ b/MigrationTool/MigrationTool/Files/Storage.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\Publish\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B72F17-FCBB-414F-B806-9ADDAF754D4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3FDF93-6C35-4329-ABB9-D3BB05399453}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8E4DB525-7351-4382-83A4-C967B7373505}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Storage" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -73,42 +73,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Storage01</t>
-  </si>
-  <si>
-    <t>Storage02</t>
-  </si>
-  <si>
-    <t>Storage03</t>
-  </si>
-  <si>
-    <t>Storage04</t>
-  </si>
-  <si>
-    <t>Storage05</t>
-  </si>
-  <si>
-    <t>Unity1234-LUN1</t>
-  </si>
-  <si>
-    <t>Array LUN</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>Unity1234-LUN2</t>
-  </si>
-  <si>
-    <t>Unity1234-LUN3</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>Storage_Capacity_Allocated_GB</t>
@@ -472,33 +436,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7370D9-E1FB-497D-9F38-4E61AFF1FF8F}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,10 +482,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -546,406 +510,6 @@
       </c>
       <c r="P1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/MigrationTool/MigrationTool/Files/Storage.xlsx
+++ b/MigrationTool/MigrationTool/Files/Storage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\Publish\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3FDF93-6C35-4329-ABB9-D3BB05399453}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E32DBF-5BB6-4713-A7CE-0FB9F47BA27F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8E4DB525-7351-4382-83A4-C967B7373505}"/>
   </bookViews>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7370D9-E1FB-497D-9F38-4E61AFF1FF8F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
